--- a/数据整理/stocks/A股/上证主板/600941-中国移动.xlsx
+++ b/数据整理/stocks/A股/上证主板/600941-中国移动.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3959,7 +3960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3970,17 +3971,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3990,13 +4011,7583 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6037</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5930</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5930</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5623</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5449</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>44.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1143</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7550</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6235</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3835</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1543</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014420</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>50.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0941</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>41.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0876</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014677</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>41.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0876</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8378</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8311</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8227</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>51.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7814</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7642</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7348</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7307</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6834</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6690</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6163</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6139</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5657</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5644</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5451</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>25.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5304</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4618</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4134</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4017</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3936</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3908</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3605</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3506</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001203</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>22.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3352</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3336</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3330</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001405</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2832</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2830</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000932</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2787</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2697</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2677</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005474</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2498</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2469</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014421</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>50.50</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2126</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1759</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>33.40</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000414</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>64.75</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001204</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004153</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>32.92</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004154</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>32.92</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001406</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>000656</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>前海开源沪深300指数</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>81.23</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>78.26</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005475</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>69.85</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005323</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>前海开源泽鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>003125</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>38.32</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>44.35</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011532</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>32.29</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002690</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>前海开源恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>36.16</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>004772</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>20.48</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>002497</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>33.27</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004453</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>前海开源盈鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>31.26</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009515</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>52.39</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009590</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>33.27</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>004454</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>前海开源盈鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>31.26</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001499</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>002691</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>前海开源恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>36.16</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>005865</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>浦银安盛量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009747</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>001498</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>建信鑫荣回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>004617</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>004652</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>建信鑫利回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>63.43</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>011052</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>007326</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>004653</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>建信鑫利回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>63.43</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>005324</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>前海开源泽鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>33.40</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>69.85</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>004618</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>000933</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>32.29</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>011533</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>81.23</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>44.35</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>009516</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>005866</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>浦银安盛量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>011053</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>004773</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>20.48</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>198</v>
+      </c>
+      <c r="D2" t="n">
+        <v>52.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>91</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>6.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600941-中国移动.xlsx
+++ b/数据整理/stocks/A股/上证主板/600941-中国移动.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11534,7 +11535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11545,17 +11546,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11565,14 +11586,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>198</v>
-      </c>
-      <c r="D2" t="n">
-        <v>52.41</v>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>131.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8267</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -11581,13 +11624,6033 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3220</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>45.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9839</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6404</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5131</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2239</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1090</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9685</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9239</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>51.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7090</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6648</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6461</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6100</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5622</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5403</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4917</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4844</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4767</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4286</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3068</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001203</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2596</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2459</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001405</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>45.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>70.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>45.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001204</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001406</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011729</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银聚享混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003125</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002690</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>前海开源恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>38.38</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000932</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002497</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011532</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001765</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>前海开源嘉鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>38.84</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>43.18</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000656</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>前海开源沪深300指数</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002558</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004153</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>35.04</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004154</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>35.04</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005323</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>前海开源泽鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009590</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009515</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004453</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>前海开源盈鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>39.42</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004218</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>42.53</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004454</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>前海开源盈鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004772</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002691</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>前海开源恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>38.38</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>30.19</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009747</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>29.03</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>29.03</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005865</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>浦银安盛量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>46.06</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001770</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>前海开源嘉鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>007502</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001498</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>建信鑫荣回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>46.06</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>004617</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005324</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>前海开源泽鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>002559</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>博时鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>004618</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>000933</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>015159</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>30.19</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>009516</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>43.18</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005866</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>浦银安盛量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>004773</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>011730</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>工银聚享混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>011533</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>39.42</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>158</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>198</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>91</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>6.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600941-中国移动.xlsx
+++ b/数据整理/stocks/A股/上证主板/600941-中国移动.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D2" t="n">
-        <v>33.84</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="D3" t="n">
-        <v>52.41</v>
+        <v>33.84</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>198</v>
+      </c>
+      <c r="D4" t="n">
+        <v>52.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>91</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>6.97</v>
       </c>
     </row>
@@ -532,6 +549,5566 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H146"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>122.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6206</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0048</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6177</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>51.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3120</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8243</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2113</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1452</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0252</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0231</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>41.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0031</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9916</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9380</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9333</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8882</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7754</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7738</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7565</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7424</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6698</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6141</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6067</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5465</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5008</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012475</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4871</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4813</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4663</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013095</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4415</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4267</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4120</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成创新成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3924</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3588</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3247</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3196</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3171</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3146</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>77.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001203</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2410</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>68.34</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001405</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方红策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>73.05</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001204</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011830</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国天恒混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015305</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>54.54</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>73.94</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>万家人工智能混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013096</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>安信远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>77.06</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>71.98</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001406</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东方红策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000279</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华商红利优选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>62.44</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>68.70</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>工银战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>77.89</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>信澳量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>70.94</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>45.80</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000904</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>银华回报灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>71.05</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>83.69</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>015306</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>54.54</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>004617</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>016563</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012476</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>平安优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>71.99</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>015104</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博道研究恒选混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010923</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>永赢鑫欣混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>517180</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>南方富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>97.73</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>159719</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>平安富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>43.77</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>850006</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>004618</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>014051</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>77.06</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>信澳量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012289</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>013869</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>创金合信物联网主题股票A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>43.77</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>71.98</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>014649</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>013870</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>创金合信物联网主题股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>015105</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>博道研究恒选混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>012288</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>012715</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>850688</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>014162</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>万家人工智能混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011831</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>富国天恒混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>850699</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>015364</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>015153</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>013122</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>014650</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>-5.40</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>-0.1258</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6577,7 +12154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14151,7 +19728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600941-中国移动.xlsx
+++ b/数据整理/stocks/A股/上证主板/600941-中国移动.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="D2" t="n">
-        <v>41.1</v>
+        <v>35.32</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D3" t="n">
-        <v>33.84</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="D4" t="n">
-        <v>52.41</v>
+        <v>33.84</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>198</v>
+      </c>
+      <c r="D5" t="n">
+        <v>52.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>91</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.97</v>
       </c>
     </row>
@@ -549,6 +566,4834 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>119.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7509</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0419</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5931</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9543</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8647</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2080</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1641</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0967</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9940</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8491</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8116</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7649</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7510</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7070</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合A/B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6830</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6715</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6286</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5839</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5591</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5327</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5148</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>66.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4774</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4236</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4154</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012475</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3859</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3764</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3153</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3118</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>32.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2853</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2827</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2677</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013853</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成匠心卓越三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1851</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>50.25</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合A/B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001203</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>017090</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001405</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>72.82</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001204</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>71.74</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014888</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东方红锦融甄选18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000279</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华商红利优选混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>68.52</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001406</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005865</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>浦银安盛量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012476</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>平安优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>013854</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>大成匠心卓越三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>517180</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>南方富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>32.91</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013869</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>创金合信物联网主题股票A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159719</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>平安富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>71.74</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013870</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>创金合信物联网主题股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>72.82</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>015364</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>73.80</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>012715</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005866</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>浦银安盛量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>014889</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>东方红锦融甄选18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合B</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>73.80</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>014051</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>016401</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>63.74</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6108,7 +10953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12154,7 +16999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19728,7 +24573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
